--- a/Datos/Database by set/Set by name/Xlsx sets/Time Spiral Remastered (TSR).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Time Spiral Remastered (TSR).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Datos/Database by set/Set by name/Xlsx sets/Time Spiral Remastered (TSR).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Time Spiral Remastered (TSR).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Datos/Database by set/Set by name/Xlsx sets/Time Spiral Remastered (TSR).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Time Spiral Remastered (TSR).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,19 +451,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lotus Bloom</t>
+          <t>Cranial Plating</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Path to Exile</t>
+          <t>Lotus Bloom</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
+        <is>
+          <t>Path to Exile</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Relentless Rats</t>
         </is>

--- a/Datos/Database by set/Set by name/Xlsx sets/Time Spiral Remastered (TSR).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Time Spiral Remastered (TSR).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,35 +444,2877 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chalice of the Void</t>
+          <t>Abrupt Decay</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cranial Plating</t>
+          <t>Aeon Chronicler</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lotus Bloom</t>
+          <t>Ajani's Pridemate</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Path to Exile</t>
+          <t>Akroma, Angel of Fury</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Akroma's Memorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Alesha, Who Smiles at Death</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Amrou Scout</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Amrou Seekers</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ancestral Vision</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ancient Den</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ancient Grudge</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ancient Stirrings</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Angel of Salvation</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Angel's Grace</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Anger of the Gods</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Arcades, the Strategist</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Arc Blade</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Arch of Orazca</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Assassinate</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Aven Mindcensor</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Aven Riftwatcher</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Banishing Light</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Baral, Chief of Compliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Basalt Gargoyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Battering Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Beast Whisperer</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Beast Within</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Become Immense</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Bedlam Reveler</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Benalish Cavalry</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Benalish Commander</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Bewilder</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Big Game Hunter</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Blade of the Sixth Pride</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Blighted Woodland</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Blightspeaker</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Bloodbraid Elf</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Bojuka Bog</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Bonded Fetch</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Bonesplitter Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Boom // Bust</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Bound in Silence</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Brine Elemental</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Brute Force</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Calciderm</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Calciform Pools</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Careful Consideration</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Castle Raptors</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Cautery Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Celestial Crusader</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chalice of the Void</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Char-Rumbler</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Children of Korlis</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chromatic Star</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Citanul Woodreaders</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Clockwork Hydra</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Cloud Key</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Cloudseeder</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Cloudshredder Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Coalition Relic</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Coal Stoker</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Conflagrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Consuming Aberration</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Contagion Clasp</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Containment Priest</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Coral Trickster</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Corpulent Corpse</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Courser of Kruphix</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Cranial Plating</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Crookclaw Transmuter</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Crovax, Ascendant Hero</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Cryptic Annelid</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Crystal Shard</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Cutthroat il-Dal</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Damnation</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Darkheart Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Dark Withering</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Dead // Gone</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Deadly Grub</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Deathspore Thallid</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Deepcavern Imp</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Delay</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Disdainful Stroke</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Dismember</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Dormant Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Dovin's Veto</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Draining Whelk</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Dralnu, Lich Lord</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Dreadhorde Arcanist</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Dread Return</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Dreadship Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Dreamscape Artist</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Dream Stalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Drifter il-Dal</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Dryad Arbor</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Dunerider Outlaw</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Durkwood Baloth</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Duskrider Peregrine</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Edge of Autumn</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Elvish Mystic</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Empty the Warrens</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Enslave</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Epic Experiment</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Errant Doomsayers</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Errant Ephemeron</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Erratic Mutation</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Etali, Primal Storm</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Eternal Witness</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Ethereal Armor</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Everflowing Chalice</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Evolutionary Leap</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Evolution Charm</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Exquisite Firecraft</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Extirpate</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Faceless Devourer</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Farseek</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Fathom Seer</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Fblthp, the Lost</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Feather, the Redeemed</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Feebleness</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Feldon of the Third Path</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Field of Ruin</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Firemaw Kavu</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Firewake Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Flagstones of Trokair</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Flickerwisp</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Foresee</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Fortify</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Fungal Reaches</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Fungus Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Fury Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Gaea's Anthem</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Gathan Raiders</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Gauntlet of Power</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Gemhide Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Gemstone Caverns</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Giant Dustwasp</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Glittering Wish</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Goblin Engineer</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Gorgon Recluse</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Gossamer Phantasm</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Grapeshot</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Grave Scrabbler</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Gray Merchant of Asphodel</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Greater Gargadon</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Greenseeker</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Grenzo, Dungeon Warden</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Griffin Guide</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Grinning Ignus</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Gurmag Angler</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Harmonic Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Harmonize</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Harvester of Souls</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Haze of Rage</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Heartwood Storyteller</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Hedron Archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Henchfiend of Ukor</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Hivestone</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Hollow One</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Homing Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Hypergenesis</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Ichor Slick</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Imperiosaur</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Infiltrator il-Kor</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Intangible Virtue</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Ith, High Arcanist</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Ivory Giant</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Jaya Ballard, Task Mage</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Jhoira of the Ghitu</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Jhoira's Timebug</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Jodah's Avenger</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Judge Unworthy</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Kaervek the Merciless</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Kavu Primarch</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Keen Sense</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Keldon Halberdier</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Kher Keep</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Kiki-Jiki, Mirror Breaker</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Knight of Sursi</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Knight of the Holy Nimbus</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Knight of the Reliquary</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Kor Dirge</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Krosan Grip</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Laboratory Maniac</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Lava Spike</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Lavinia, Azorius Renegade</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Leveler</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Leyline of the Void</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Life and Limb</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Lightning Axe</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Liliana's Triumph</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Lingering Souls</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Living End</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Llanowar Mentor</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Logic Knot</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Looter il-Kor</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Lost Auramancers</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Lotus Bloom</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Lotus Bloom</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Lymph Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Magus of the Future</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Magus of the Moon</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Mana Tithe</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Mangara of Corondor</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Manifold Key</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Mass of Ghouls</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Master of the Pearl Trident</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Might of Old Krosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Might Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Mindstab</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Minions' Murmurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Mire Boa</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Mirri the Cursed</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Mirror Entity</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Mogg War Marshal</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Molten Rain</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Molten Slagheap</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Momentary Blink</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Monastery Swiftspear</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Mortify</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Muck Drubb</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Mulldrifter</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Muraganda Petroglyphs</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Mycologist</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Mystical Teachings</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Mystic Confluence</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Mystic Sanctuary</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Nantuko Shaman</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Nature's Claim</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Necrotic Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Needlepeak Spider</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Nether Traitor</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Nightshade Assassin</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Ninja of the Deep Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Orcish Cannonade</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Outrider en-Kor</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Pact of Negation</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Pact of the Titan</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Palace Jailer</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Pallid Mycoderm</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Panharmonicon</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Paradise Plume</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Paradoxical Outcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Past in Flames</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Path to Exile</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Pendelhaven Elder</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Penumbra Spider</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Phantom Wurm</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Phthisis</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Piracy Charm</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Pit Keeper</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Ponder</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Pongify</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Porphyry Nodes</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Poultice Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Premature Burial</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Primal Forcemage</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Primal Plasma</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Primeval Titan</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Prismatic Lens</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Prized Amalgam</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Prodigal Pyromancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Psychotic Episode</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Pulmonic Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qasali Pridemage</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Radha, Heir to Keld</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Rakdos Charm</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Ramunap Ruins</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Rathi Trapper</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Read the Bones</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Reality Acid</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Rebuff the Wicked</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Reckless Wurm</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Reclamation Sage</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Reflex Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Reiterate</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
           <t>Relentless Rats</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Remand</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Repeal</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Restoration Angel</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Restore Balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Return to Dust</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Riddle of Lightning</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Ridged Kusite</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Rift Bolt</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Rift Elemental</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Riftmarked Knight</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Riftwing Cloudskate</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Riptide Pilferer</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Rough // Tumble</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Saffi Eriksdotter</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Saltblast</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Saltcrusted Steppe</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Saltfield Recluse</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Sangrophage</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Sanguine Bond</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Sarcomite Myr</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Scryb Ranger</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Seal of Primordium</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Search for Tomorrow</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Secret Plans</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Sedge Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Sengir Nosferatu</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Serra Avenger</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Shade of Trokair</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Shaper Parasite</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Shivan Meteor</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Shivan Sand-Mage</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Shriekmaw</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Sidewinder Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Sigil of the Empty Throne</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Silence</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Simian Spirit Guide</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Sinew Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Skirk Shaman</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Skittering Monstrosity</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Slaughter Pact</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Slimefoot, the Stowaway</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Slipstream Serpent</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Sliver Legion</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Sliversmith</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Smallpox</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Snapback</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Solemn Simulacrum</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Sorcerous Spyglass</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Spell Burst</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Spiketail Drakeling</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Spinneret Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Sporesower Thallid</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Sporoloth Ancient</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Sram, Senior Edificer</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Stingscourger</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Stinkweed Imp</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Stonecloaker</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Stonehorn Dignitary</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Stormcloud Djinn</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Storm Entity</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Stormfront Riders</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Strangling Soot</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Street Wraith</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Strength in Numbers</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Stronghold Rats</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Stuffy Doll</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Sudden Death</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Sudden Shock</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Sudden Spoiling</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Sulfur Elemental</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Summoner's Pact</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Sunlance</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Swarmyard</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Sylvan Scrying</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Talrand, Sky Summoner</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Tarmogoyf</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Tasigur, the Golden Fang</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Teferi, Mage of Zhalfir</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Temporal Isolation</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Temur Ascendancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Temur Battle Rage</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Tendrils of Corruption</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Terramorphic Expanse</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Thallid Germinator</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Thallid Shell-Dweller</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Thelonite Hermit</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Thelon of Havenwood</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Thick-Skinned Goblin</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Think Twice</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Thornweald Archer</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Thoughtseize</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Thraben Inspector</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Thragtusk</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Thrill of the Hunt</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Tidehollow Sculler</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Timebender</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Time of Need</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Tolarian Sentinel</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Tolaria West</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Tombstalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Treasure Cruise</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Trespasser il-Vec</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Trinket Mage</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Tromp the Domains</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>True-Name Nemesis</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Trygon Predator</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Two-Headed Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Uktabi Drake</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Urborg Syphon-Mage</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Urborg, Tomb of Yawgmoth</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Urza's Factory</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Utopia Mycon</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Utopia Vow</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Vampire Hexmage</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Vandalblast</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Vanquisher's Banner</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Veiling Oddity</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Venser, Shaper Savant</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Vesuva</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Vesuvan Shapeshifter</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Virulent Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Walk the Aeons</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Wastes</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Watcher Sliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Wheel of Fate</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Whip-Spine Drake</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Whitemane Lion</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Wipe Away</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Yavimaya Dryad</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Yawgmoth, Thran Physician</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Yixlid Jailer</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Young Pyromancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Zealous Conscripts</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Zulaport Cutthroat</t>
         </is>
       </c>
     </row>
